--- a/API_project/data/Excel/nianbao.xlsx
+++ b/API_project/data/Excel/nianbao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24228" windowHeight="11940"/>
+    <workbookView windowWidth="18468" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="pid" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>pid</t>
   </si>
   <si>
+    <t>52baef8e5153419a2548b361f1b2f68b</t>
+  </si>
+  <si>
     <t>00005e127fd1dc564c1d1c47ca3391a4</t>
   </si>
   <si>
@@ -149,6 +152,135 @@
   </si>
   <si>
     <t>000a5d1513071238412f375885a80e58</t>
+  </si>
+  <si>
+    <t>000c470379ede9de1cc84d5a63c0c29a</t>
+  </si>
+  <si>
+    <t>000d04ecd05a72dfb801cd085d50fcb1</t>
+  </si>
+  <si>
+    <t>000d1f9a45026cb85d0b9b94b0785e41</t>
+  </si>
+  <si>
+    <t>000d3c31ff7107b269454ef561e7f1da</t>
+  </si>
+  <si>
+    <t>000d3c53f5d4e5ac98095d8d29fe2800</t>
+  </si>
+  <si>
+    <t>000d91615a43e5ee202329995b46c865</t>
+  </si>
+  <si>
+    <t>000d9b3f47a6c0dee13a02f256123235</t>
+  </si>
+  <si>
+    <t>000de837bfbb95bf37652d9c1ae469d8</t>
+  </si>
+  <si>
+    <t>000deca6115c35d9013faddf769d6adc</t>
+  </si>
+  <si>
+    <t>000e2c7e30089e518776c786b6667d45</t>
+  </si>
+  <si>
+    <t>000e3d71ab2107fc6e360e921e3f90d8</t>
+  </si>
+  <si>
+    <t>000e67afe5ecc40f229ca8516fc6be3d</t>
+  </si>
+  <si>
+    <t>000e7e27b36c4a3a154d4902587bfc1d</t>
+  </si>
+  <si>
+    <t>000edb2b5dafb5d33d42f31a7bb2b886</t>
+  </si>
+  <si>
+    <t>000f4e0dd023324bd36c54a9d0eecf39</t>
+  </si>
+  <si>
+    <t>000f5988279499763d4acac09f4616fe</t>
+  </si>
+  <si>
+    <t>000f6a84240962d1a831bc482da7212a</t>
+  </si>
+  <si>
+    <t>000fcf4dcdd8857e1408d55bd49de022</t>
+  </si>
+  <si>
+    <t>000ff14c5de2ad9eadc441c4d8c1ef01</t>
+  </si>
+  <si>
+    <t>00100e99617f78e04b4bd82842d1683c</t>
+  </si>
+  <si>
+    <t>001011d90fcf89787f3f440bddfa0b78</t>
+  </si>
+  <si>
+    <t>00109bc8a739152fb757097e23e2a296</t>
+  </si>
+  <si>
+    <t>0010acc30dae09960368c36fe0f7fbb7</t>
+  </si>
+  <si>
+    <t>0010cc277f2326670a4c54f816d25097</t>
+  </si>
+  <si>
+    <t>0011438cf651f6e753e8617b10a95c30</t>
+  </si>
+  <si>
+    <t>001148142dda324091768e6b96d40ecf</t>
+  </si>
+  <si>
+    <t>0011888899188ffa04023e7a63815b89</t>
+  </si>
+  <si>
+    <t>0011b393f4ed4fdb8e08b58c90b1c531</t>
+  </si>
+  <si>
+    <t>0011c457e9765ca0cd2220d40394adfb</t>
+  </si>
+  <si>
+    <t>0011e0adafa7cb919f6fd6eb8162c693</t>
+  </si>
+  <si>
+    <t>0011eb325730301837ac0da748c2e636</t>
+  </si>
+  <si>
+    <t>0012321e86938fbc571050dacc8bcc82</t>
+  </si>
+  <si>
+    <t>00123e9c1469f7a90a95a460a1207d83</t>
+  </si>
+  <si>
+    <t>0012867884ec48c28960c748625b27fb</t>
+  </si>
+  <si>
+    <t>0012c90d6c8bc06f3588d796947955cf</t>
+  </si>
+  <si>
+    <t>0013bd4bfc4f98def789aaf39235131b</t>
+  </si>
+  <si>
+    <t>0013cb47328daf34087dfd3b8fc0d9b0</t>
+  </si>
+  <si>
+    <t>0013da8e0220f84ed158710875d4ac34</t>
+  </si>
+  <si>
+    <t>0013f0b8daf35c24d65c9226cc607b24</t>
+  </si>
+  <si>
+    <t>0014075ef5173cf2027f6e4d1e6bd637</t>
+  </si>
+  <si>
+    <t>001421f3404921c8199b7193e1ae8727</t>
+  </si>
+  <si>
+    <t>001438a2dde299b57ca527c6d5155161</t>
+  </si>
+  <si>
+    <t>0014955bd2349b1a36475d7b0060108b</t>
   </si>
 </sst>
 </file>
@@ -156,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -168,58 +300,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +323,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -265,6 +397,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -290,7 +430,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,15 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,19 +460,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,163 +622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,9 +680,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +722,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,171 +751,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1324,6 +1456,226 @@
         <v>44</v>
       </c>
     </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
